--- a/testData/syslog_test_data.xlsx
+++ b/testData/syslog_test_data.xlsx
@@ -26,14 +26,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>请输入IP地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IP格式不正确！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>请输入端口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -183,6 +175,14 @@
   </si>
   <si>
     <t>ip为空，点击测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址格式不正确！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入地址地址</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -589,39 +589,39 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H1" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="D2" s="1">
         <v>514</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F2" s="1">
         <v>2</v>
@@ -630,7 +630,7 @@
         <v>32</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -664,39 +664,39 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H1" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="D2" s="1">
         <v>514</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
@@ -705,24 +705,24 @@
         <v>32</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D3" s="1">
         <v>514</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
@@ -731,7 +731,7 @@
         <v>32</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -746,7 +746,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -765,37 +765,37 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H1" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1">
         <v>514</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
@@ -804,22 +804,22 @@
         <v>32</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1">
         <v>514</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
@@ -828,24 +828,24 @@
         <v>32</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D4" s="1">
         <v>514</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
@@ -854,24 +854,24 @@
         <v>32</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D5" s="1">
         <v>514</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
@@ -880,22 +880,22 @@
         <v>32</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
@@ -904,22 +904,22 @@
         <v>32</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
@@ -928,24 +928,24 @@
         <v>32</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
@@ -954,24 +954,24 @@
         <v>32</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F9" s="1">
         <v>1</v>
@@ -980,55 +980,55 @@
         <v>32</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D10" s="1">
         <v>514</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1">
         <v>32</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D11" s="1">
         <v>514</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1">
         <v>32</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/testData/syslog_test_data.xlsx
+++ b/testData/syslog_test_data.xlsx
@@ -182,7 +182,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>请输入地址地址</t>
+    <t>请输入地址</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -746,7 +746,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/testData/syslog_test_data.xlsx
+++ b/testData/syslog_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="mod_syslog" sheetId="1" r:id="rId1"/>
@@ -83,10 +83,6 @@
   </si>
   <si>
     <t>保存成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>172.16.10.23</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -183,6 +179,10 @@
   </si>
   <si>
     <t>请输入地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>172.16.10.17</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -570,8 +570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -615,13 +615,13 @@
         <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="D2" s="1">
         <v>514</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F2" s="1">
         <v>2</v>
@@ -630,7 +630,7 @@
         <v>32</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -684,13 +684,13 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" s="1">
         <v>514</v>
@@ -705,18 +705,18 @@
         <v>32</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D3" s="1">
         <v>514</v>
@@ -731,7 +731,7 @@
         <v>32</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -745,7 +745,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -785,10 +785,10 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1">
@@ -804,15 +804,15 @@
         <v>32</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1">
@@ -828,7 +828,7 @@
         <v>32</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -836,7 +836,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
@@ -854,7 +854,7 @@
         <v>32</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -862,7 +862,7 @@
         <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
@@ -880,12 +880,12 @@
         <v>32</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>2</v>
@@ -904,12 +904,12 @@
         <v>32</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>2</v>
@@ -928,12 +928,12 @@
         <v>32</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>3</v>
@@ -954,12 +954,12 @@
         <v>32</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>3</v>
@@ -980,15 +980,15 @@
         <v>32</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>11</v>
@@ -1004,15 +1004,15 @@
         <v>32</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>11</v>
@@ -1028,7 +1028,7 @@
         <v>32</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
